--- a/SAC/Configuracion/Config.xlsx
+++ b/SAC/Configuracion/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monica.lozano\Documents\Validacion_Portabilidad\Configuracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\SAC\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D81F5F-B3A3-4FCC-9734-24C9DAF4568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5A3D61-130E-43EC-B6E8-AB385FF74758}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>SelectDataToProcess</t>
   </si>
   <si>
-    <t>1003818321M</t>
-  </si>
-  <si>
     <t>Sheets names</t>
   </si>
   <si>
@@ -114,24 +111,12 @@
     <t>Informe</t>
   </si>
   <si>
-    <t>OUT PORTABILIDAD</t>
-  </si>
-  <si>
     <t>SelectNewTransaction</t>
   </si>
   <si>
     <t>SELECT TOP 1 * FROM [Informe$] w WHERE  w.STATUS_EJECUCION = 'NUEVO'</t>
   </si>
   <si>
-    <t>SELECT * FROM [OUT PORTABILIDAD$] w WHERE w.ESTADO = 'REDIGITADO' OR w.ESTADO = 'ENVIADO ABD'</t>
-  </si>
-  <si>
-    <t>LinkPajarito</t>
-  </si>
-  <si>
-    <t>http://132.147.170.110:8080/Consulta_Portados.aspx</t>
-  </si>
-  <si>
     <t>UpdateTransactionStatusFailed</t>
   </si>
   <si>
@@ -159,15 +144,6 @@
     <t>BW</t>
   </si>
   <si>
-    <t>Estados Pajarito</t>
-  </si>
-  <si>
-    <t>RechazadoABD</t>
-  </si>
-  <si>
-    <t>Rechazado ABD</t>
-  </si>
-  <si>
     <t>AW</t>
   </si>
   <si>
@@ -177,15 +153,6 @@
     <t>CeldaCausal</t>
   </si>
   <si>
-    <t>CausalNoCorresponde</t>
-  </si>
-  <si>
-    <t>El NIP indicado en la solicitud de portabilidad no corresponde</t>
-  </si>
-  <si>
-    <t>NuevoEstado</t>
-  </si>
-  <si>
     <t>BX</t>
   </si>
   <si>
@@ -207,21 +174,12 @@
     <t>SubjectError</t>
   </si>
   <si>
-    <t>::El asistente virtual Validación Portabilidad fallo</t>
-  </si>
-  <si>
     <t>SubjectNotificacionInicio</t>
   </si>
   <si>
-    <t>::El asistente virtual Validación Portabilidad terminó su operación con éxito</t>
-  </si>
-  <si>
     <t>SubjectNotificacionFinalizacion</t>
   </si>
   <si>
-    <t>::El asistente virtual Validación Portabilidad inició</t>
-  </si>
-  <si>
     <t>BodyError</t>
   </si>
   <si>
@@ -237,9 +195,6 @@
     <t>SubjectAdjunto</t>
   </si>
   <si>
-    <t>::El asistente virtual Validación Portabilidad envía sus archivos de ejecución</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
@@ -249,84 +204,94 @@
     <t>SelectCount</t>
   </si>
   <si>
+    <t>SELECT i.ESTADO, COUNT(I.ESTADO) AS CANTIDAD_ESTADO FROM [Informe$] i GROUP BY i.ESTADO</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>CorreosNotificacionBack</t>
+  </si>
+  <si>
+    <t>CeldaNombreDistribuidor</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>carpetaDescargas</t>
+  </si>
+  <si>
+    <t>C:\Users\monica.lozano\Downloads</t>
+  </si>
+  <si>
+    <t>monica.lozano@caex.com.co; heyli.agredo@caex.com.co; andres.rodriguez@caex.com.co; Katherine.loaiza@caex.com.co; dany.enriquez@caex.com.co; carolina.obregon@caex.com.co; yuliana.grisales@caex.com.co; cinthia.vivas@caex.com.co</t>
+  </si>
+  <si>
+    <t>https://sacinspira.claro.com.co/SAC-web/faces/login.xhtml</t>
+  </si>
+  <si>
+    <t>monicalozanotovar.ext</t>
+  </si>
+  <si>
+    <t>UserSac</t>
+  </si>
+  <si>
+    <t>PassSac</t>
+  </si>
+  <si>
+    <t>Sac.2022*</t>
+  </si>
+  <si>
     <t>Saludos equipo
-El asistente virtual Validación Portabilidad fallo, validar logs y archivo de salida para conocer fallo
-Que tenga un buen día</t>
-  </si>
-  <si>
-    <t>Saludos equipo
-El asistente virtual Validación Portabilidad envía archivos adjuntos de salida
+El asistente virtual SAC envía archivos adjuntos de salida
 Que tenga un buen día
 Este mensaje fué generado automaticamente, por favor no contestar</t>
   </si>
   <si>
+    <t>::El asistente virtual SAC fallo</t>
+  </si>
+  <si>
+    <t>::El asistente virtual SAC inició</t>
+  </si>
+  <si>
+    <t>::El asistente virtual SAC terminó su operación con éxito</t>
+  </si>
+  <si>
+    <t>::El asistente virtual SAC envía sus archivos de ejecución</t>
+  </si>
+  <si>
     <t>Saludos equipo
-El asistente virtual Validación Portabilidad inició su ejecución con un total de {0} y de los estados a procesar se encontraron las siguientes cantidades.
-{1}
+El asistente virtual SAC fallo, validar logs y archivo de salida para conocer fallo
+Que tenga un buen día</t>
+  </si>
+  <si>
+    <t>LinkSAC</t>
+  </si>
+  <si>
+    <t>SELECT * FROM [OUT$] w WHERE w.ESTADO = 'REDIGITADO' OR w.ESTADO = 'ENVIADO ABD'</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>Saludos equipo
+El asistente virtual SAC inició su ejecución con un total de {0} y de los estados a procesar se encontraron las siguientes cantidades.
 Que tenga un buen día
 Este mensaje fué generado automaticamente, por favor no contestar</t>
   </si>
   <si>
-    <t>SELECT i.ESTADO, COUNT(I.ESTADO) AS CANTIDAD_ESTADO FROM [Informe$] i GROUP BY i.ESTADO</t>
-  </si>
-  <si>
     <t>Saludos equipo
-El asistente virtual Validación Portabilidad finalizo su ejecución con los siguientes registros por estado:
-{0}
+El asistente virtual SAC finalizo su ejecución con los siguientes registros por estado:
 Que tenga un buen día
 Este mensaje fué generado automaticamente, por favor no contestar</t>
-  </si>
-  <si>
-    <t>PENDIENTE REDIGITACION</t>
-  </si>
-  <si>
-    <t>AQ</t>
-  </si>
-  <si>
-    <t>ENVIADO ABD</t>
-  </si>
-  <si>
-    <t>EnviadoABDNew</t>
-  </si>
-  <si>
-    <t>EnviadoABDOld</t>
-  </si>
-  <si>
-    <t>Enviado al ABD</t>
-  </si>
-  <si>
-    <t>CorreosNotificacionBack</t>
-  </si>
-  <si>
-    <t>NumeroDiasConsulta</t>
-  </si>
-  <si>
-    <t>EnviadoABD_Redigitado</t>
-  </si>
-  <si>
-    <t>REDIGITADO</t>
-  </si>
-  <si>
-    <t>CeldaNombreDistribuidor</t>
-  </si>
-  <si>
-    <t>BY</t>
-  </si>
-  <si>
-    <t>carpetaDescargas</t>
-  </si>
-  <si>
-    <t>C:\Users\monica.lozano\Downloads</t>
-  </si>
-  <si>
-    <t>monica.lozano@caex.com.co; heyli.agredo@caex.com.co; andres.rodriguez@caex.com.co; Katherine.loaiza@caex.com.co; dany.enriquez@caex.com.co; carolina.obregon@caex.com.co; yuliana.grisales@caex.com.co; cinthia.vivas@caex.com.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -370,6 +335,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -388,32 +359,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -728,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -778,28 +745,39 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8">
-        <v>10574</v>
+      <c r="B2" s="5">
+        <v>256756</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
+      <c r="B3" s="2">
+        <v>10101010</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:26" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
       <c r="C5" s="4"/>
     </row>
   </sheetData>
@@ -811,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -860,36 +838,34 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -901,350 +877,280 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
+    <row r="9" spans="1:26">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="5"/>
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="6"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="9" t="s">
-        <v>40</v>
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75">
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
+        <v>49</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="B45" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="150">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="105">
       <c r="A47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="180">
       <c r="A48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="180">
       <c r="A49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="150">
-      <c r="A54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="105">
-      <c r="A55" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="210">
-      <c r="A56" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="210">
-      <c r="A57" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{5DF53C6F-8BC4-4249-84E3-A26BBB7000DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
 
